--- a/出库/床垫的出库(更新4.10).xlsx
+++ b/出库/床垫的出库(更新4.10).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\犹拉缇\出库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Uoolatex\出库\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -812,7 +812,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
+      <selection pane="bottomLeft" activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4929,7 +4929,7 @@
         <v>10</v>
       </c>
       <c r="O97" s="14">
-        <f t="shared" ref="D97:O97" si="46">O95+O95</f>
+        <f t="shared" ref="O97" si="46">O95+O95</f>
         <v>0</v>
       </c>
       <c r="P97" s="14"/>
@@ -5036,7 +5036,9 @@
       <c r="D100" s="14">
         <v>4</v>
       </c>
-      <c r="E100" s="14"/>
+      <c r="E100" s="14">
+        <v>1</v>
+      </c>
       <c r="F100" s="14"/>
       <c r="G100" s="14">
         <v>1</v>
@@ -5049,16 +5051,18 @@
       </c>
       <c r="J100" s="14"/>
       <c r="K100" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L100" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M100" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
+      <c r="O100" s="14">
+        <v>2</v>
+      </c>
       <c r="P100" s="14"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
@@ -5069,55 +5073,54 @@
         <v>21</v>
       </c>
       <c r="C101" s="14">
-        <f>C99-C100</f>
+        <f t="shared" ref="C101:O101" si="48">C99-C100</f>
         <v>0</v>
       </c>
       <c r="D101" s="14">
-        <f>D99-D100</f>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="E101" s="14">
-        <f>E99-E100</f>
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="F101" s="14">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="14">
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
-      <c r="F101" s="14">
-        <f>F99-F100</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="14">
-        <f>G99-G100</f>
-        <v>3</v>
-      </c>
       <c r="H101" s="14">
-        <f>H99-H100</f>
+        <f t="shared" si="48"/>
         <v>32</v>
       </c>
       <c r="I101" s="14">
-        <f>I99-I100</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="J101" s="14">
-        <f>J99-J100</f>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="K101" s="14">
-        <f>K99-K100</f>
-        <v>18</v>
+        <f t="shared" si="48"/>
+        <v>17</v>
       </c>
       <c r="L101" s="14">
-        <f>L99-L100</f>
-        <v>33</v>
+        <f t="shared" si="48"/>
+        <v>32</v>
       </c>
       <c r="M101" s="14">
-        <f>M99-M100</f>
-        <v>32</v>
+        <f t="shared" si="48"/>
+        <v>31</v>
       </c>
       <c r="N101" s="14">
-        <f>N99-N100</f>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="O101" s="14">
-        <f>O99-O100</f>
         <v>0</v>
       </c>
       <c r="P101" s="14"/>
